--- a/result/metrics_values/light-reading-cloud.xlsx
+++ b/result/metrics_values/light-reading-cloud.xlsx
@@ -484,7 +484,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>reading-cloud-account-feign-client</t>
+          <t>reading-cloud-account</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -494,7 +494,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -504,34 +504,34 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.3378995433789954</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.17816091954022986</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.002275002275002275</t>
+          <t>0.00015712555335407934</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00110398507828927</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>reading-cloud-book</t>
+          <t>reading-cloud-book-feign-client</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.34632034632034625</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.0009101291878547518</t>
+          <t>0.0077720312095312105</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -578,27 +578,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>reading-cloud-homepage</t>
+          <t>reading-cloud-account-feign-client</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -608,71 +608,71 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3492063492063492</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.002275002275002275</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.0011490192528726363</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>reading-cloud-account</t>
+          <t>reading-cloud-homepage</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.3378995433789954</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.17816091954022986</t>
+          <t>0.3492063492063492</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.00015712555335407934</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.00110398507828927</t>
+          <t>0.0011490192528726363</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>reading-cloud-book-feign-client</t>
+          <t>reading-cloud-book</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.34632034632034625</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.0083244301994302</t>
+          <t>0.0006874946795059578</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -760,17 +760,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>reading-cloud-account-feign-client</t>
+          <t>reading-cloud-account</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>reading-cloud-book</t>
+          <t>reading-cloud-book-feign-client</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.01692362953138815</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -782,12 +782,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>reading-cloud-account</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>reading-cloud-account-feign-client</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>reading-cloud-homepage</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -804,12 +804,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>reading-cloud-account-feign-client</t>
+          <t>reading-cloud-account</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>reading-cloud-account</t>
+          <t>reading-cloud-homepage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -826,34 +826,34 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>reading-cloud-account-feign-client</t>
+          <t>reading-cloud-account</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>reading-cloud-book-feign-client</t>
+          <t>reading-cloud-book</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00119280088483809</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.3563218390804597</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>reading-cloud-book</t>
+          <t>reading-cloud-book-feign-client</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>reading-cloud-account-feign-client</t>
+          <t>reading-cloud-account</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -870,12 +870,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>reading-cloud-book</t>
+          <t>reading-cloud-book-feign-client</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>reading-cloud-homepage</t>
+          <t>reading-cloud-account-feign-client</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -892,12 +892,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>reading-cloud-book</t>
+          <t>reading-cloud-book-feign-client</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>reading-cloud-account</t>
+          <t>reading-cloud-homepage</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -914,12 +914,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>reading-cloud-book-feign-client</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>reading-cloud-book</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>reading-cloud-book-feign-client</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -936,17 +936,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>reading-cloud-homepage</t>
+          <t>reading-cloud-account-feign-client</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>reading-cloud-account-feign-client</t>
+          <t>reading-cloud-account</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.005362505362505362</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -958,61 +958,61 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>reading-cloud-homepage</t>
+          <t>reading-cloud-account-feign-client</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>reading-cloud-book</t>
+          <t>reading-cloud-book-feign-client</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.0008449695667740781</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.3412698412698412</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>reading-cloud-account-feign-client</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>reading-cloud-homepage</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>reading-cloud-account</t>
-        </is>
-      </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.00027309917606780455</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.3412698412698412</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>reading-cloud-homepage</t>
+          <t>reading-cloud-account-feign-client</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>reading-cloud-book-feign-client</t>
+          <t>reading-cloud-book</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.007936507936507936</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1024,61 +1024,61 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>reading-cloud-homepage</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>reading-cloud-account</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>reading-cloud-account-feign-client</t>
-        </is>
-      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00027309917606780455</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.3412698412698412</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>reading-cloud-account</t>
+          <t>reading-cloud-homepage</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>reading-cloud-book</t>
+          <t>reading-cloud-book-feign-client</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.00119280088483809</t>
+          <t>0.007936507936507936</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.3563218390804597</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>reading-cloud-account</t>
+          <t>reading-cloud-homepage</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>reading-cloud-homepage</t>
+          <t>reading-cloud-account-feign-client</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.005362505362505362</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1090,34 +1090,34 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>reading-cloud-account</t>
+          <t>reading-cloud-homepage</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>reading-cloud-book-feign-client</t>
+          <t>reading-cloud-book</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.01692362953138815</t>
+          <t>0.0008449695667740781</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.3412698412698412</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>reading-cloud-book-feign-client</t>
+          <t>reading-cloud-book</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>reading-cloud-account-feign-client</t>
+          <t>reading-cloud-account</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1134,12 +1134,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>reading-cloud-book</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>reading-cloud-book-feign-client</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>reading-cloud-book</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1156,12 +1156,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>reading-cloud-book-feign-client</t>
+          <t>reading-cloud-book</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>reading-cloud-homepage</t>
+          <t>reading-cloud-account-feign-client</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1178,12 +1178,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>reading-cloud-book-feign-client</t>
+          <t>reading-cloud-book</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>reading-cloud-account</t>
+          <t>reading-cloud-homepage</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">

--- a/result/metrics_values/light-reading-cloud.xlsx
+++ b/result/metrics_values/light-reading-cloud.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.0077720312095312105</t>
+          <t>0.0083244301994302</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
